--- a/Essentia RFS Updates due Fri 9-15-23 by 12PM.xlsx
+++ b/Essentia RFS Updates due Fri 9-15-23 by 12PM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wayne Phipps\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://essentiainc-my.sharepoint.com/personal/austin_sanders_essentia-inc_com/Documents/Documents/Python/Create-ATT-Amtrak-Status-Report/Create-ATT-Amtrak-Status-Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1877DAA7-5AF9-4460-AE06-D413980E8ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{1877DAA7-5AF9-4460-AE06-D413980E8ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CB62FEB-EDE6-4448-BBEB-152EEF0C1C32}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{112EF1B4-064E-490F-9ECF-BECCDB142E7F}"/>
+    <workbookView xWindow="86280" yWindow="9000" windowWidth="29040" windowHeight="15720" xr2:uid="{112EF1B4-064E-490F-9ECF-BECCDB142E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Essenta Upd due 9-8-23" sheetId="1" r:id="rId1"/>
@@ -3349,10 +3349,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3390,7 +3394,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3496,7 +3500,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3638,7 +3642,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3648,18 +3652,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA47EE71-0BBA-425A-8B30-2914C5BF171C}">
   <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="9" max="9" width="16.88671875" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" customWidth="1"/>
-    <col min="12" max="12" width="16.88671875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="16.89453125" customWidth="1"/>
+    <col min="11" max="11" width="16.89453125" customWidth="1"/>
+    <col min="12" max="12" width="16.89453125" style="20" customWidth="1"/>
+    <col min="15" max="15" width="26.3671875" customWidth="1"/>
+    <col min="16" max="16" width="12.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3706,7 +3712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -3749,7 +3755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
@@ -3792,7 +3798,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
@@ -3835,7 +3841,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
@@ -3878,7 +3884,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
         <v>49</v>
       </c>
@@ -3921,7 +3927,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>52</v>
       </c>
@@ -3964,7 +3970,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
         <v>56</v>
       </c>
@@ -4007,7 +4013,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
@@ -4050,7 +4056,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
@@ -4093,7 +4099,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>79</v>
       </c>
@@ -4136,7 +4142,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>84</v>
       </c>
@@ -4179,7 +4185,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>92</v>
       </c>
@@ -4222,7 +4228,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>98</v>
       </c>
@@ -4265,7 +4271,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>104</v>
       </c>
@@ -4308,7 +4314,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>110</v>
       </c>
@@ -4351,7 +4357,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
         <v>117</v>
       </c>
@@ -4394,7 +4400,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
         <v>123</v>
       </c>
@@ -4437,7 +4443,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>129</v>
       </c>
@@ -4480,7 +4486,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>135</v>
       </c>
@@ -4523,7 +4529,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>139</v>
       </c>
@@ -4566,7 +4572,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
         <v>143</v>
       </c>
@@ -4609,7 +4615,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>148</v>
       </c>
@@ -4652,7 +4658,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
         <v>154</v>
       </c>
@@ -4695,7 +4701,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7" t="s">
         <v>159</v>
       </c>
@@ -4738,7 +4744,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
         <v>165</v>
       </c>
@@ -4781,7 +4787,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>172</v>
       </c>
@@ -4824,7 +4830,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
         <v>176</v>
       </c>
@@ -4867,7 +4873,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>180</v>
       </c>
@@ -4910,7 +4916,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>185</v>
       </c>
@@ -4953,7 +4959,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>192</v>
       </c>
@@ -4996,7 +5002,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>196</v>
       </c>
@@ -5039,7 +5045,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>204</v>
       </c>
@@ -5082,7 +5088,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7" t="s">
         <v>208</v>
       </c>
@@ -5125,7 +5131,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7" t="s">
         <v>211</v>
       </c>
@@ -5168,7 +5174,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
         <v>218</v>
       </c>
@@ -5211,7 +5217,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7" t="s">
         <v>224</v>
       </c>
@@ -5254,7 +5260,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7" t="s">
         <v>230</v>
       </c>
@@ -5297,7 +5303,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>233</v>
       </c>
@@ -5340,7 +5346,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7" t="s">
         <v>236</v>
       </c>
@@ -5383,7 +5389,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7" t="s">
         <v>243</v>
       </c>
@@ -5426,7 +5432,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7" t="s">
         <v>249</v>
       </c>
@@ -5469,7 +5475,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7" t="s">
         <v>254</v>
       </c>
@@ -5512,7 +5518,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7" t="s">
         <v>257</v>
       </c>
@@ -5555,7 +5561,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>261</v>
       </c>
@@ -5598,7 +5604,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7" t="s">
         <v>266</v>
       </c>
@@ -5641,7 +5647,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7" t="s">
         <v>273</v>
       </c>
@@ -5684,7 +5690,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7" t="s">
         <v>277</v>
       </c>
@@ -5727,7 +5733,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7" t="s">
         <v>283</v>
       </c>
@@ -5770,7 +5776,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7" t="s">
         <v>290</v>
       </c>
@@ -5813,7 +5819,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>296</v>
       </c>
@@ -5856,7 +5862,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="8" t="s">
         <v>300</v>
       </c>
@@ -5899,7 +5905,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7" t="s">
         <v>304</v>
       </c>
@@ -5942,7 +5948,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7" t="s">
         <v>308</v>
       </c>
@@ -5985,7 +5991,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7" t="s">
         <v>313</v>
       </c>
@@ -6028,7 +6034,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7" t="s">
         <v>318</v>
       </c>
@@ -6071,7 +6077,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>323</v>
       </c>
@@ -6114,7 +6120,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="7" t="s">
         <v>330</v>
       </c>
@@ -6157,7 +6163,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7" t="s">
         <v>338</v>
       </c>
@@ -6200,7 +6206,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7" t="s">
         <v>344</v>
       </c>
@@ -6243,7 +6249,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="7" t="s">
         <v>353</v>
       </c>
@@ -6286,7 +6292,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7" t="s">
         <v>358</v>
       </c>
@@ -6329,7 +6335,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>360</v>
       </c>
@@ -6372,7 +6378,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="7" t="s">
         <v>362</v>
       </c>
@@ -6415,7 +6421,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="7" t="s">
         <v>369</v>
       </c>
@@ -6458,7 +6464,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="7" t="s">
         <v>375</v>
       </c>
@@ -6501,7 +6507,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="7" t="s">
         <v>381</v>
       </c>
@@ -6544,7 +6550,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="7" t="s">
         <v>388</v>
       </c>
@@ -6587,7 +6593,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>393</v>
       </c>
@@ -6630,7 +6636,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="7" t="s">
         <v>397</v>
       </c>
@@ -6673,7 +6679,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="7" t="s">
         <v>401</v>
       </c>
@@ -6716,7 +6722,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="7" t="s">
         <v>408</v>
       </c>
@@ -6759,7 +6765,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="7" t="s">
         <v>414</v>
       </c>
@@ -6802,7 +6808,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="7" t="s">
         <v>421</v>
       </c>
@@ -6845,7 +6851,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="7" t="s">
         <v>428</v>
       </c>
@@ -6888,7 +6894,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="7" t="s">
         <v>433</v>
       </c>
@@ -6931,7 +6937,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="7" t="s">
         <v>440</v>
       </c>
@@ -6974,7 +6980,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="7" t="s">
         <v>445</v>
       </c>
@@ -7017,7 +7023,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="7" t="s">
         <v>452</v>
       </c>
@@ -7060,7 +7066,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="7" t="s">
         <v>457</v>
       </c>
@@ -7103,7 +7109,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="7" t="s">
         <v>465</v>
       </c>
@@ -7146,7 +7152,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="7" t="s">
         <v>470</v>
       </c>
@@ -7189,7 +7195,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="7" t="s">
         <v>477</v>
       </c>
@@ -7232,7 +7238,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="7" t="s">
         <v>485</v>
       </c>
@@ -7275,7 +7281,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="7" t="s">
         <v>490</v>
       </c>
@@ -7318,7 +7324,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="7" t="s">
         <v>498</v>
       </c>
